--- a/data/trans_bre/IP19C05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C05-Edad-trans_bre.xlsx
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>-1,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,0%</t>
+          <t>536,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>205,28%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,81</t>
+          <t>-1,86; 1,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,4</t>
+          <t>0,71; 6,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 3,1</t>
+          <t>-0,55; 3,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,19 +742,19 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,89; 211,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,98; 253,16</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>-0,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>536,92%</t>
+          <t>-7,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>205,28%</t>
+          <t>29,91%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,23</t>
+          <t>-1,63; 1,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,78</t>
+          <t>-2,45; 2,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,73</t>
+          <t>-2,22; 3,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,89; 211,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,98; 253,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C05-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>-10,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>536,92%</t>
+          <t>-27,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>205,28%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,23</t>
+          <t>-2,6; 1,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,78</t>
+          <t>-3,12; 1,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 3,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,22%</t>
+          <t>-56,16%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,0%</t>
+          <t>129,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>108,94%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,81</t>
+          <t>-3,83; 1,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,4</t>
+          <t>-0,71; 5,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 3,1</t>
+          <t>-0,87; 3,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,19 +822,19 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-68,89; 211,84</t>
+          <t>-57,35; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,98; 253,16</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,16%</t>
+          <t>73,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>54,41%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,17%</t>
+          <t>22,41%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,13</t>
+          <t>-0,81; 2,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,9</t>
+          <t>-2,83; 3,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,59</t>
+          <t>-2,87; 5,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-81,22; 309,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,86; 396,35</t>
+          <t>-71,74; 417,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,01; 297,13</t>
+          <t>-55,18; 294,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,16%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>54,41%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>50,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 1,09</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 2,82</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 2,8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-84,07; 346,82</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-38,52; 301,72</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-39,98; 339,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/IP19C05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C05-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,55</t>
+          <t>-2,68; 1,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,16</t>
+          <t>-3,08; 1,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 1,09</t>
+          <t>-4,39; 1,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 5,94</t>
+          <t>-1,03; 5,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 3,33</t>
+          <t>-0,97; 3,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,35; —</t>
+          <t>-71,85; 928,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,93</t>
+          <t>-1,01; 2,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 3,87</t>
+          <t>-2,68; 3,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 5,0</t>
+          <t>-3,0; 4,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,74; 417,15</t>
+          <t>-74,83; 358,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,18; 294,61</t>
+          <t>-56,91; 316,87</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,09</t>
+          <t>-1,23; 1,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,82</t>
+          <t>-0,76; 2,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,8</t>
+          <t>-0,95; 2,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-84,07; 346,82</t>
+          <t>-81,5; 302,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-38,52; 301,72</t>
+          <t>-36,68; 325,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-39,98; 339,52</t>
+          <t>-42,23; 298,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C05-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP19C05-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,53</t>
+          <t>-3,09; 1,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 1,37</t>
+          <t>-3,18; 1,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 1,13</t>
+          <t>-4,46; 0,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 5,48</t>
+          <t>-1,05; 5,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,4</t>
+          <t>-0,94; 3,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-71,85; 928,14</t>
+          <t>-67,04; 1198,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,55</t>
+          <t>-1,1; 2,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 3,6</t>
+          <t>-2,82; 3,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,7</t>
+          <t>-3,58; 4,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,83; 358,85</t>
+          <t>-76,61; 332,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-56,91; 316,87</t>
+          <t>-64,26; 353,87</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,14</t>
+          <t>-1,24; 1,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,76</t>
+          <t>-0,74; 2,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,71</t>
+          <t>-0,79; 2,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-81,5; 302,84</t>
+          <t>-81,22; 309,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 325,62</t>
+          <t>-35,86; 396,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,23; 298,18</t>
+          <t>-38,01; 297,13</t>
         </is>
       </c>
     </row>
